--- a/data/trans_orig/MOL_RUIDO_TRAF_DIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_DIA-Estudios-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,24</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,01</t>
+          <t>1,66; 3,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,85</t>
+          <t>1,76; 2,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,74</t>
+          <t>1,83; 2,74</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,26</t>
+          <t>2,78; 3,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,27</t>
+          <t>2,74; 3,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,18</t>
+          <t>2,83; 3,18</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,55</t>
+          <t>2,98; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 3,84</t>
+          <t>3,28; 3,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 3,61</t>
+          <t>3,23; 3,62</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 3,28</t>
+          <t>2,9; 3,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,17</t>
+          <t>2,91; 3,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MOL_RUIDO_TRAF_DIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_DIA-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del tráfico durante el día en el interior de la vivienda</t>
+          <t>Molestia del ruido del tráfico durante el día en el interior de la vivienda (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MOL_RUIDO_TRAF_DIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_DIA-Estudios-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,04</t>
+          <t>1,59; 2,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,94</t>
+          <t>1,76; 2,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,74</t>
+          <t>1,8; 2,71</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,25</t>
+          <t>2,78; 3,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,18</t>
+          <t>2,85; 3,19</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,54</t>
+          <t>2,98; 3,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 3,79</t>
+          <t>3,28; 3,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 3,62</t>
+          <t>3,21; 3,62</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,17</t>
+          <t>2,8; 3,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,28</t>
+          <t>2,91; 3,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
